--- a/output/strike grid & maturity grid recon.xlsx
+++ b/output/strike grid & maturity grid recon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29541B96-960A-4767-A44E-2B6A80867C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{29541B96-960A-4767-A44E-2B6A80867C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33268655-53E2-43FC-B29D-A8CD6BDFC563}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
+    <workbookView xWindow="7590" yWindow="2130" windowWidth="19620" windowHeight="15180" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>vol</t>
   </si>
@@ -126,13 +126,26 @@
   <si>
     <t>F_csc</t>
   </si>
+  <si>
+    <t>money (MX)</t>
+  </si>
+  <si>
+    <t>k (MX)</t>
+  </si>
+  <si>
+    <t>money (diff)</t>
+  </si>
+  <si>
+    <t>k (diff)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -218,13 +231,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -243,6 +324,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,15 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F32581-4DE6-4154-B1B2-65CB32E50AF6}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
@@ -579,191 +676,649 @@
         <v>1.0822999976901</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="8">
         <v>2.7397260273999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <f>B1*EXP(C8*B8)/EXP(C9*B9)</f>
+      <c r="B5" s="11">
+        <f>$B$1*EXP(C10*B10)/EXP(C11*B11)</f>
         <v>1.08232571831154</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <f>B1*EXP(C8*B8)/EXP(C9*B9)/EXP(C10*B10)</f>
+      <c r="B6" s="11">
+        <f>$B$1*EXP(C10*B10)/EXP(C11*B11)/EXP(C12*B12)</f>
         <v>1.0824277881079776</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <f>B3*EXP(0.5*D13^2*B2)</f>
-        <v>1.0823527397258521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="11">
+        <f>B6*EXP(0.5*D15^2*B4)</f>
+        <v>1.082454812070571</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="11">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="11">
         <v>4.1155828699999996E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="11">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="11">
         <v>-4.5584587960999998E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="11">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="11">
         <v>-3.4420062715500001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="11">
         <v>0.1345855308592</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="11">
         <v>0.13372658317649999</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="11">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E15" s="11">
         <v>0.1387265831765</v>
       </c>
-      <c r="F13">
+      <c r="F15" s="12">
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="13">
         <v>1.0727260244829</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="13">
         <v>1.0773555473554</v>
       </c>
-      <c r="D14" s="1">
-        <f>B5</f>
-        <v>1.0823527397258521</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D16" s="13">
+        <f>B7</f>
+        <v>1.082454812070571</v>
+      </c>
+      <c r="E16" s="13">
         <v>1.0877712353913001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="14">
         <v>1.0928611436024001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
-        <f>B14/$B$4</f>
+      <c r="B17" s="11">
+        <f>B16/$B$6</f>
         <v>0.99103703384958763</v>
       </c>
-      <c r="C15">
-        <f>C14/$B$4</f>
+      <c r="C17" s="11">
+        <f>C16/$B$6</f>
         <v>0.99531401465455394</v>
       </c>
-      <c r="D15" s="1">
-        <f>D14/$B$3</f>
+      <c r="D17" s="13">
+        <f>D16/$B$6</f>
         <v>1.0000249660650717</v>
       </c>
-      <c r="E15">
-        <f>E14/$B$4</f>
+      <c r="E17" s="11">
+        <f>E16/$B$6</f>
         <v>1.0049365392703586</v>
       </c>
-      <c r="F15">
-        <f>F14/$B$4</f>
+      <c r="F17" s="12">
+        <f>F16/$B$6</f>
         <v>1.0096388466824742</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:C16" si="0">LN(B15)</f>
+      <c r="B18" s="16">
+        <f t="shared" ref="B18:C18" si="0">LN(B17)</f>
         <v>-9.0033751691782869E-3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="16">
         <f t="shared" si="0"/>
         <v>-4.6969989947772319E-3</v>
       </c>
-      <c r="D16" s="1">
-        <f>LN(D15)</f>
+      <c r="D18" s="16">
+        <f>LN(D17)</f>
         <v>2.4965753424725402E-5</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:F16" si="1">LN(E15)</f>
+      <c r="E18" s="16">
+        <f t="shared" ref="E18:F18" si="1">LN(E17)</f>
         <v>4.9243945126910731E-3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18" s="17">
         <f t="shared" si="1"/>
         <v>9.5926893649697434E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.99103703384959996</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.99531401465460001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.0000249660650999</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1.0049365392703</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.0096388466824999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13">
+        <v>-9.0033751692000005E-3</v>
+      </c>
+      <c r="C20" s="13">
+        <v>-4.6969989948000002E-3</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2.4965753399999999E-5</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4.9243945127E-3</v>
+      </c>
+      <c r="F20" s="13">
+        <v>9.5926893650000004E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18">
+        <f>B19-B17</f>
+        <v>1.2323475573339238E-14</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" ref="C21:F21" si="2">C19-C17</f>
+        <v>4.6074255521943996E-14</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="2"/>
+        <v>2.8199664825478976E-14</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.8619775700208265E-14</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="2"/>
+        <v>2.5757174171303632E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="20">
+        <f>B20-B18</f>
+        <v>-2.1713533748801694E-14</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" ref="C22:F22" si="3">C20-C18</f>
+        <v>-2.2768245622195593E-14</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.4725403338253168E-14</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="3"/>
+        <v>8.9268870073766493E-15</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="3"/>
+        <v>3.0257046867987469E-14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3.8356164383599997E-2</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11">
+        <f>$B$1*EXP(C31*B31)/EXP(C32*B32)</f>
+        <v>1.0827260515254968</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <f>$B$1*EXP(C31*B31)/EXP(C32*B32)/EXP(C33*B33)</f>
+        <v>1.0826972329054014</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13">
+        <f>B27*EXP(0.5*D36^2*B25)</f>
+        <v>1.0829283667131695</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3.8356164383599997E-2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>6.2825722343999996E-3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3.8356164383599997E-2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>-3.9785812372000002E-3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3.8356164383599997E-2</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6.9394524460000004E-4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.1079965744464</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.1057591241115</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.1055</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.1082591241115</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.1119965744464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1.0539781449123</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1.0679035858624</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1.0829283667131999</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1.0985408873741001</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1.1138330420706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="11">
+        <f>B37/B27</f>
+        <v>0.97347449765246541</v>
+      </c>
+      <c r="C38" s="11">
+        <f>C37/B27</f>
+        <v>0.98633630289854635</v>
+      </c>
+      <c r="D38" s="13">
+        <f>D37/B27</f>
+        <v>1.0002134796328779</v>
+      </c>
+      <c r="E38" s="11">
+        <f>E37/B27</f>
+        <v>1.0146335041664256</v>
+      </c>
+      <c r="F38" s="12">
+        <f>F37/B27</f>
+        <v>1.0287576325300527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="13">
+        <f t="shared" ref="B39:C39" si="4">LN(B38)</f>
+        <v>-2.688365106929435E-2</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="4"/>
+        <v>-1.3757904542964329E-2</v>
+      </c>
+      <c r="D39" s="13">
+        <f>LN(D38)</f>
+        <v>2.1345684934354016E-4</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" ref="E39:F39" si="5">LN(E38)</f>
+        <v>1.4527467649811674E-2</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="5"/>
+        <v>2.835189220888891E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.97347449765250005</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.98633630289859997</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1.0002134796327999</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1.0146335041664001</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1.0287576325300001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="11">
+        <v>-2.6883651069300001E-2</v>
+      </c>
+      <c r="C41" s="11">
+        <v>-1.3757904543E-2</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2.1345684930000001E-4</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1.4527467649800001E-2</v>
+      </c>
+      <c r="F41" s="12">
+        <v>2.8351892208900002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="18">
+        <f>B40-B38</f>
+        <v>3.4638958368304884E-14</v>
+      </c>
+      <c r="C42" s="18">
+        <f t="shared" ref="C42:F42" si="6">C40-C38</f>
+        <v>5.3623772089395061E-14</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="6"/>
+        <v>-7.7937656328685989E-14</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="6"/>
+        <v>-2.55351295663786E-14</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="6"/>
+        <v>-5.262457136723242E-14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="20">
+        <f>B41-B39</f>
+        <v>-5.6517290847324375E-15</v>
+      </c>
+      <c r="C43" s="20">
+        <f t="shared" ref="C43:F43" si="7">C41-C39</f>
+        <v>-3.5671118836511084E-14</v>
+      </c>
+      <c r="D43" s="20">
+        <f t="shared" si="7"/>
+        <v>-4.3540149784193627E-14</v>
+      </c>
+      <c r="E43" s="20">
+        <f t="shared" si="7"/>
+        <v>-1.1672954269847935E-14</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="7"/>
+        <v>1.1091821905395705E-14</v>
       </c>
     </row>
   </sheetData>
@@ -785,34 +1340,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>41178</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>41360</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.49863010000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>8.4218999999999995E-3</v>
       </c>
       <c r="D4">
@@ -821,10 +1376,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4.5217E-3</v>
       </c>
       <c r="D5">
@@ -833,10 +1388,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>-1.2E-4</v>
       </c>
       <c r="D6">
@@ -845,18 +1400,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1.3596999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1.3571397000000001</v>
       </c>
       <c r="D8">

--- a/output/strike grid & maturity grid recon.xlsx
+++ b/output/strike grid & maturity grid recon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{29541B96-960A-4767-A44E-2B6A80867C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33268655-53E2-43FC-B29D-A8CD6BDFC563}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{29541B96-960A-4767-A44E-2B6A80867C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3D215AD-4F60-4CD3-B032-F6072ADCE736}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="2130" windowWidth="19620" windowHeight="15180" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
+    <workbookView xWindow="5925" yWindow="2985" windowWidth="18135" windowHeight="11355" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>vol</t>
   </si>
@@ -138,6 +138,9 @@
   <si>
     <t>k (diff)</t>
   </si>
+  <si>
+    <t>Price:</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +148,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -333,12 +336,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F32581-4DE6-4154-B1B2-65CB32E50AF6}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +669,7 @@
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -676,8 +677,8 @@
         <v>1.0822999976901</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -688,8 +689,23 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -701,8 +717,11 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -715,7 +734,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -728,7 +747,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -736,7 +755,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>1</v>
@@ -748,7 +767,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -762,7 +781,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -776,7 +795,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -790,7 +809,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -798,7 +817,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -818,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -838,7 +857,7 @@
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -884,27 +903,27 @@
         <v>1.0096388466824742</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <f t="shared" ref="B18:C18" si="0">LN(B17)</f>
         <v>-9.0033751691782869E-3</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>-4.6969989947772319E-3</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <f>LN(D17)</f>
         <v>2.4965753424725402E-5</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <f t="shared" ref="E18:F18" si="1">LN(E17)</f>
         <v>4.9243945126910731E-3</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>9.5926893649697434E-3</v>
       </c>
@@ -925,7 +944,7 @@
       <c r="E19" s="13">
         <v>1.0049365392703</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="14">
         <v>1.0096388466824999</v>
       </c>
     </row>
@@ -945,7 +964,7 @@
       <c r="E20" s="13">
         <v>4.9243945127E-3</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="14">
         <v>9.5926893650000004E-3</v>
       </c>
     </row>
@@ -953,23 +972,23 @@
       <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <f>B19-B17</f>
         <v>1.2323475573339238E-14</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <f t="shared" ref="C21:F21" si="2">C19-C17</f>
         <v>4.6074255521943996E-14</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <f t="shared" si="2"/>
         <v>2.8199664825478976E-14</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <f t="shared" si="2"/>
         <v>-5.8619775700208265E-14</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <f t="shared" si="2"/>
         <v>2.5757174171303632E-14</v>
       </c>
@@ -978,23 +997,23 @@
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <f>B20-B18</f>
         <v>-2.1713533748801694E-14</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <f t="shared" ref="C22:F22" si="3">C20-C18</f>
         <v>-2.2768245622195593E-14</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <f t="shared" si="3"/>
         <v>-2.4725403338253168E-14</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <f t="shared" si="3"/>
         <v>8.9268870073766493E-15</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <f t="shared" si="3"/>
         <v>3.0257046867987469E-14</v>
       </c>
@@ -1275,23 +1294,23 @@
       <c r="A42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="16">
         <f>B40-B38</f>
         <v>3.4638958368304884E-14</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="16">
         <f t="shared" ref="C42:F42" si="6">C40-C38</f>
         <v>5.3623772089395061E-14</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="16">
         <f t="shared" si="6"/>
         <v>-7.7937656328685989E-14</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <f t="shared" si="6"/>
         <v>-2.55351295663786E-14</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="17">
         <f t="shared" si="6"/>
         <v>-5.262457136723242E-14</v>
       </c>
@@ -1300,23 +1319,23 @@
       <c r="A43" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="18">
         <f>B41-B39</f>
         <v>-5.6517290847324375E-15</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <f t="shared" ref="C43:F43" si="7">C41-C39</f>
         <v>-3.5671118836511084E-14</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <f t="shared" si="7"/>
         <v>-4.3540149784193627E-14</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <f t="shared" si="7"/>
         <v>-1.1672954269847935E-14</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <f t="shared" si="7"/>
         <v>1.1091821905395705E-14</v>
       </c>

--- a/output/strike grid & maturity grid recon.xlsx
+++ b/output/strike grid & maturity grid recon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{29541B96-960A-4767-A44E-2B6A80867C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3D215AD-4F60-4CD3-B032-F6072ADCE736}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D23CA-A0F5-4638-A303-EE4C1F1C8964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2985" windowWidth="18135" windowHeight="11355" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
+    <workbookView xWindow="-1095" yWindow="6780" windowWidth="23295" windowHeight="12930" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>vol</t>
   </si>
@@ -139,7 +139,28 @@
     <t>k (diff)</t>
   </si>
   <si>
-    <t>Price:</t>
+    <t>k_min</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>k_max</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>Nk</t>
   </si>
 </sst>
 </file>
@@ -654,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F32581-4DE6-4154-B1B2-65CB32E50AF6}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,18 +688,62 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
         <v>1.0822999976901</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>5.3272499999999995E-4</v>
+      </c>
+      <c r="N1">
+        <v>1.065E-3</v>
+      </c>
+      <c r="O1">
+        <v>1.598E-3</v>
+      </c>
+      <c r="P1">
+        <v>2.1310000000000001E-3</v>
+      </c>
+      <c r="Q1">
+        <v>4.2620000000000002E-3</v>
+      </c>
+      <c r="R1">
+        <v>6.3930000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>N1-M1</f>
+        <v>5.3227500000000002E-4</v>
+      </c>
+      <c r="N2">
+        <f>O1-N1</f>
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="O2">
+        <f>P1-O1</f>
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="P2">
+        <f>Q1-P1</f>
+        <v>2.1310000000000001E-3</v>
+      </c>
+      <c r="Q2">
+        <f>R1-Q1</f>
+        <v>2.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -690,22 +755,18 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="H4" s="11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -720,8 +781,18 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>-4.1106482744587503E-2</v>
+      </c>
+      <c r="I5">
+        <v>-4.1106446492200001E-2</v>
+      </c>
+      <c r="J5">
+        <f>I5-H5</f>
+        <v>3.6252387501656269E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -733,8 +804,21 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>4.5297248358925103E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.5297252020500001E-2</v>
+      </c>
+      <c r="J6">
+        <f>I6-H6</f>
+        <v>3.6615748974511142E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -746,16 +830,33 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <f>H6-H5</f>
+        <v>8.6403731103512599E-2</v>
+      </c>
+      <c r="I7">
+        <f>I6-I5</f>
+        <v>8.6403698512699995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>9.0951295898434399E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>1</v>
@@ -766,8 +867,15 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <f>H7/H8</f>
+        <v>94.999999999999915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -781,7 +889,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -795,7 +903,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -809,7 +917,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -817,7 +925,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -837,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -857,7 +965,7 @@
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>

--- a/output/strike grid & maturity grid recon.xlsx
+++ b/output/strike grid & maturity grid recon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D23CA-A0F5-4638-A303-EE4C1F1C8964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="114_{5CBB4055-EE37-4378-AD85-02423DCF7E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10C7C1CB-90C8-4919-82CA-590E4A3924E0}"/>
   <bookViews>
-    <workbookView xWindow="-1095" yWindow="6780" windowWidth="23295" windowHeight="12930" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE94B52-7784-4D5D-959F-34CE5F250930}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,21 +677,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F32581-4DE6-4154-B1B2-65CB32E50AF6}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>6.3930000000000002E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M2">
         <f>N1-M1</f>
         <v>5.3227500000000002E-4</v>
@@ -742,8 +742,8 @@
         <v>2.1310000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -792,7 +792,7 @@
         <v>3.6252387501656269E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -818,7 +818,7 @@
         <v>3.6615748974511142E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -842,7 +842,7 @@
         <v>8.6403698512699995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -856,7 +856,7 @@
         <v>9.0951295898434399E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>94.999999999999915</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -925,7 +925,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1.0928611436024001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1.0096388466824742</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>9.5926893649697434E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1.0096388466824999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>9.5926893650000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>2.5757174171303632E-14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
@@ -1126,8 +1126,8 @@
         <v>3.0257046867987469E-14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1186,7 +1186,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>1</v>
@@ -1198,7 +1198,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1248,7 +1248,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0.1119965744464</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1.1138330420706</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>1.0287576325300527</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>2.835189220888891E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1.0287576325300001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>2.8351892208900002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>29</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>-5.262457136723242E-14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>30</v>
       </c>
@@ -1461,12 +1461,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>41178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.49863010000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1.0042082427290779</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>1.002257199370709</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0.99994016617811454</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1.3596999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>1.357058283330592</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9">
         <f>D8/D6</f>
         <v>1.3571394861728814</v>
